--- a/python/lin/SD t1=6 t2=5.xlsx
+++ b/python/lin/SD t1=6 t2=5.xlsx
@@ -483,32 +483,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.77e+00</t>
+          <t>5.80e+00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.224</t>
+          <t>0.196</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.64e+00</t>
+          <t>5.76e+00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0449</t>
+          <t>0.0929</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.96e+00</t>
+          <t>5.76e+00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.355</t>
+          <t>0.233</t>
         </is>
       </c>
     </row>
@@ -525,32 +525,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.09e+00</t>
+          <t>4.20e+00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.10e+00</t>
+          <t>4.19e+00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.03e+00</t>
+          <t>4.11e+00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -567,32 +567,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8.24e-01</t>
+          <t>8.50e-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>8.39e-01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>8.30e-01</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.00879</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>8.15e-01</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.242</t>
+          <t>0.0281</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>9.49e-01</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00175</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>9.50e-01</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00178</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9.49e-01</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.00175</t>
+          <t>0.00151</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.00178</t>
+          <t>0.0017</t>
         </is>
       </c>
     </row>
